--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15783395-5E28-485E-A4EC-631BF9E1AE33}"/>
   <bookViews>
     <workbookView xWindow="29790" yWindow="2370" windowWidth="29460" windowHeight="20220" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="6" r:id="rId2"/>
-    <sheet name="SES-capacity" sheetId="2" r:id="rId3"/>
-    <sheet name="SES-annual-cycles" sheetId="4" r:id="rId4"/>
-    <sheet name="SES-efficiency" sheetId="5" r:id="rId5"/>
+    <sheet name="SES-capacity" sheetId="2" r:id="rId2"/>
+    <sheet name="SES-annual-cycles" sheetId="4" r:id="rId3"/>
+    <sheet name="SES-efficiency" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>SES Seasonal Electricity Storage Capacity</t>
   </si>
@@ -54,137 +53,86 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Nothing under development that qualifies for this variable</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Seasonal electricity storage refers to technologies that shift electricity demand between electricity timeslices,</t>
+  </si>
+  <si>
+    <t>such as charging on average spring days and discharging on peak summer days.</t>
+  </si>
+  <si>
+    <t>A technology that charges and discharges frequently, such as grid batteries, is a diurnal, not seasonal, technology in the EPS.</t>
+  </si>
+  <si>
+    <t>Relevant Technologies</t>
+  </si>
+  <si>
+    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
+  </si>
+  <si>
+    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
+  </si>
+  <si>
+    <t>Pumped hydro can be used as seaonal energy storage, but a more typical operation is around 300 charge/discharge cycles per year,</t>
+  </si>
+  <si>
+    <t>so the EPS categorizes it as a diurnal storage technology.</t>
+  </si>
+  <si>
+    <t>The main alternative to compressed air for seasonal energy storage is hydrogen.  However, in the EPS,</t>
+  </si>
+  <si>
+    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
+  </si>
+  <si>
+    <t>Notes on Units</t>
+  </si>
+  <si>
+    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
+  </si>
+  <si>
+    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
+  </si>
+  <si>
+    <t>before being refilled, this counts as half a cycle.</t>
+  </si>
+  <si>
+    <t>Unit: MWh</t>
+  </si>
+  <si>
     <t>Seasonal Energy Storage Capacity (MWh)</t>
   </si>
   <si>
-    <t>Unit: MWh</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
-  </si>
-  <si>
-    <t>before being refilled, this counts as half a cycle.</t>
-  </si>
-  <si>
-    <t>Seasonal electricity storage refers to technologies that shift electricity demand between electricity timeslices,</t>
-  </si>
-  <si>
-    <t>such as charging on average spring days and discharging on peak summer days.</t>
-  </si>
-  <si>
-    <t>A technology that charges and discharges frequently, such as grid batteries, is a diurnal, not seasonal, technology in the EPS.</t>
-  </si>
-  <si>
-    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
-  </si>
-  <si>
     <t>Unit: dimensionless (number of cycles)</t>
   </si>
   <si>
+    <t>Number of cycles</t>
+  </si>
+  <si>
     <t>Typical charge/discharge cycles per year</t>
   </si>
   <si>
-    <t>Number of cycles</t>
-  </si>
-  <si>
     <t>Unit: dimensionless (% energy returned)</t>
   </si>
   <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
     <t>Round-trip efficiency</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Annual Charge/Discharge Cycles</t>
-  </si>
-  <si>
-    <t>Round-Trip Efficiency</t>
-  </si>
-  <si>
-    <t>UN Climate Technology Center</t>
-  </si>
-  <si>
-    <t>undated</t>
-  </si>
-  <si>
-    <t>Compressed Air Energy Storage (CAES)</t>
-  </si>
-  <si>
-    <t>https://www.ctc-n.org/technologies/compressed-air-energy-storage-caes</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
-  </si>
-  <si>
-    <t>Figure 3, green areas (for compressed air energy storage)</t>
-  </si>
-  <si>
-    <t>Projecting the Future Levelized Cost of Electricity Storage Technologies</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S254243511830583X</t>
-  </si>
-  <si>
-    <t>Oliver Schmidt, Sylvain Melchior, Adam Hawkes, and Iaian Staffell</t>
-  </si>
-  <si>
-    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
-  </si>
-  <si>
-    <t>Relevant Technologies</t>
-  </si>
-  <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
-    <t>Pumped hydro can be used as seaonal energy storage, but a more typical operation is around 300 charge/discharge cycles per year,</t>
-  </si>
-  <si>
-    <t>so the EPS categorizes it as a diurnal storage technology.</t>
-  </si>
-  <si>
-    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
-  </si>
-  <si>
-    <t>The main alternative to compressed air for seasonal energy storage is hydrogen.  However, in the EPS,</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Figure shows most cost-effective energy storage technology at various charge/discharge cycle counts and duration of charge/discharge</t>
-  </si>
-  <si>
-    <t>For significant quantities of energy stored (high on Y-axis), compressed air (blue) and hydrogen (black) dominate as the two most relevant technologies.</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/energyexplained/electricity/energy-storage-for-electricity-generation.php</t>
-  </si>
-  <si>
-    <t>U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Electricity explained: Energy storage for electricity generation</t>
-  </si>
-  <si>
-    <t>"Compressed-air storage systems" section</t>
-  </si>
-  <si>
-    <t>Present-Day Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +152,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,29 +186,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,61 +215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>74430</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>174569</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F40266F-F004-0524-0C95-F85BB0187467}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="1019175"/>
-          <a:ext cx="6141855" cy="7727894"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,267 +514,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2354-DEF2-427F-84E2-87F1715F500F}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" xr:uid="{85AC090C-335B-44B7-AF5A-65B347B77298}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{6C532EDA-3190-404D-B6B8-39BFDD969147}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{133E3D93-A5AE-4F0A-84C5-8E2B52CEF116}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25C513-BECB-45B3-B494-6104E16AFED7}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE28874C-7E97-4F42-9C16-97DC9DFEBC23}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -988,128 +747,128 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AE2" si="0">$B2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1117,35 +876,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4A6EE-605B-4309-9B9A-AA561B7BF258}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,38 +914,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F6B784-C366-48D5-965D-FBE1A460796A}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CA7193-DA32-45AA-8041-0A21BCE045DE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28416D12-B41E-4616-9740-77A6AD29BCA0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6023007-3608-497C-984A-0C52D8767D3C}"/>
 </file>
--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15783395-5E28-485E-A4EC-631BF9E1AE33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29790" yWindow="2370" windowWidth="29460" windowHeight="20220" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SES-capacity" sheetId="2" r:id="rId2"/>
-    <sheet name="SES-annual-cycles" sheetId="4" r:id="rId3"/>
-    <sheet name="SES-efficiency" sheetId="5" r:id="rId4"/>
+    <sheet name="Data" sheetId="6" r:id="rId2"/>
+    <sheet name="SES-capacity" sheetId="2" r:id="rId3"/>
+    <sheet name="SES-annual-cycles" sheetId="4" r:id="rId4"/>
+    <sheet name="SES-efficiency" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>SES Seasonal Electricity Storage Capacity</t>
   </si>
@@ -53,15 +54,21 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Nothing under development that qualifies for this variable</t>
+    <t>Seasonal Energy Storage Capacity (MWh)</t>
+  </si>
+  <si>
+    <t>Unit: MWh</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
+  </si>
+  <si>
+    <t>before being refilled, this counts as half a cycle.</t>
+  </si>
+  <si>
     <t>Seasonal electricity storage refers to technologies that shift electricity demand between electricity timeslices,</t>
   </si>
   <si>
@@ -71,13 +78,70 @@
     <t>A technology that charges and discharges frequently, such as grid batteries, is a diurnal, not seasonal, technology in the EPS.</t>
   </si>
   <si>
+    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (number of cycles)</t>
+  </si>
+  <si>
+    <t>Typical charge/discharge cycles per year</t>
+  </si>
+  <si>
+    <t>Number of cycles</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (% energy returned)</t>
+  </si>
+  <si>
+    <t>Round-trip efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Annual Charge/Discharge Cycles</t>
+  </si>
+  <si>
+    <t>Round-Trip Efficiency</t>
+  </si>
+  <si>
+    <t>UN Climate Technology Center</t>
+  </si>
+  <si>
+    <t>undated</t>
+  </si>
+  <si>
+    <t>Compressed Air Energy Storage (CAES)</t>
+  </si>
+  <si>
+    <t>https://www.ctc-n.org/technologies/compressed-air-energy-storage-caes</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
+  </si>
+  <si>
+    <t>Figure 3, green areas (for compressed air energy storage)</t>
+  </si>
+  <si>
+    <t>Projecting the Future Levelized Cost of Electricity Storage Technologies</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S254243511830583X</t>
+  </si>
+  <si>
+    <t>Oliver Schmidt, Sylvain Melchior, Adam Hawkes, and Iaian Staffell</t>
+  </si>
+  <si>
+    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
+  </si>
+  <si>
     <t>Relevant Technologies</t>
   </si>
   <si>
-    <t>An example of a possible seasonal electricity storage technology is compressed air energy storage (CAES).</t>
-  </si>
-  <si>
-    <t>We use compressed air energy storage as our model for annual charge/discharge cycles and round-trip efficiency (see sources above).</t>
+    <t>Notes on Units</t>
   </si>
   <si>
     <t>Pumped hydro can be used as seaonal energy storage, but a more typical operation is around 300 charge/discharge cycles per year,</t>
@@ -86,53 +150,41 @@
     <t>so the EPS categorizes it as a diurnal storage technology.</t>
   </si>
   <si>
+    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
+  </si>
+  <si>
     <t>The main alternative to compressed air for seasonal energy storage is hydrogen.  However, in the EPS,</t>
   </si>
   <si>
-    <t>hydrogen is handled through hydrogen-burning power plants and therefore should not be included here.</t>
-  </si>
-  <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
-    <t>"Capacity" here refers to the quantity of electricity that may be stored at one time by seasonal technologies, in MWh, not MW.</t>
-  </si>
-  <si>
-    <t>Annual charge/discharge cycles refers to full charge and discharge, so if the storage is only drained halfway</t>
-  </si>
-  <si>
-    <t>before being refilled, this counts as half a cycle.</t>
-  </si>
-  <si>
-    <t>Unit: MWh</t>
-  </si>
-  <si>
-    <t>Seasonal Energy Storage Capacity (MWh)</t>
-  </si>
-  <si>
-    <t>Unit: dimensionless (number of cycles)</t>
-  </si>
-  <si>
-    <t>Number of cycles</t>
-  </si>
-  <si>
-    <t>Typical charge/discharge cycles per year</t>
-  </si>
-  <si>
-    <t>Unit: dimensionless (% energy returned)</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Round-trip efficiency</t>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Figure shows most cost-effective energy storage technology at various charge/discharge cycle counts and duration of charge/discharge</t>
+  </si>
+  <si>
+    <t>For significant quantities of energy stored (high on Y-axis), compressed air (blue) and hydrogen (black) dominate as the two most relevant technologies.</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/energyexplained/electricity/energy-storage-for-electricity-generation.php</t>
+  </si>
+  <si>
+    <t>U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Electricity explained: Energy storage for electricity generation</t>
+  </si>
+  <si>
+    <t>"Compressed-air storage systems" section</t>
+  </si>
+  <si>
+    <t>Present-Day Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +204,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,23 +246,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,6 +281,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74430</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F40266F-F004-0524-0C95-F85BB0187467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="1019175"/>
+          <a:ext cx="6141855" cy="7727894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,147 +635,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2354-DEF2-427F-84E2-87F1715F500F}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{85AC090C-335B-44B7-AF5A-65B347B77298}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{6C532EDA-3190-404D-B6B8-39BFDD969147}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{133E3D93-A5AE-4F0A-84C5-8E2B52CEF116}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25C513-BECB-45B3-B494-6104E16AFED7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE28874C-7E97-4F42-9C16-97DC9DFEBC23}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -747,128 +988,128 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AE2" si="0">$B2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -876,37 +1117,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4A6EE-605B-4309-9B9A-AA561B7BF258}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -914,295 +1153,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F6B784-C366-48D5-965D-FBE1A460796A}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CA7193-DA32-45AA-8041-0A21BCE045DE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28416D12-B41E-4616-9740-77A6AD29BCA0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6023007-3608-497C-984A-0C52D8767D3C}"/>
 </file>